--- a/medicine/Sexualité et sexologie/Le_Jardin_des_roses_et_des_soupirs/Le_Jardin_des_roses_et_des_soupirs.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Jardin_des_roses_et_des_soupirs/Le_Jardin_des_roses_et_des_soupirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin des roses et des soupirs est un monologue du conteur Moussa Lebkiri, libre adaptation des œuvres de Cheikh Nefzaoui (La Prairie parfumée traduite en 1886 par Richard Francis Burton) et Ahmad al-Tifachi (Les Délices des cœurs par Ahmad al-Tifachi), contes érotiques arabes des XIIIe et XVe siècles.
